--- a/data/8.5.2.xlsx
+++ b/data/8.5.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>15-19</t>
   </si>
@@ -204,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -390,15 +390,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1033,14 +1035,24 @@
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10.199999999999999</v>
+      </c>
       <c r="G9" s="14">
         <v>10.6</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="I9" s="14">
+        <v>10.8</v>
+      </c>
       <c r="J9" s="14">
         <v>12.7</v>
       </c>
@@ -1078,12 +1090,18 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>14.8</v>
+      </c>
       <c r="G10" s="14">
         <v>15.8</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="14">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14">
+        <v>14.1</v>
+      </c>
       <c r="J10" s="14">
         <v>18.399999999999999</v>
       </c>
@@ -1121,12 +1139,18 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>7.2</v>
+      </c>
       <c r="G11" s="14">
         <v>7.2</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="14">
+        <v>8.4</v>
+      </c>
+      <c r="I11" s="14">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J11" s="14">
         <v>9.8000000000000007</v>
       </c>
@@ -1162,14 +1186,24 @@
       <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="F12" s="14">
+        <v>7</v>
+      </c>
       <c r="G12" s="14">
         <v>7.8</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I12" s="14">
+        <v>8.4</v>
+      </c>
       <c r="J12" s="14">
         <v>8.1999999999999993</v>
       </c>
@@ -1207,12 +1241,18 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14">
+        <v>8.5</v>
+      </c>
       <c r="G13" s="14">
         <v>8.9</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="I13" s="14">
+        <v>9</v>
+      </c>
       <c r="J13" s="14">
         <v>10.3</v>
       </c>
@@ -1250,12 +1290,18 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>5.9</v>
+      </c>
       <c r="G14" s="14">
         <v>7.1</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7.9</v>
+      </c>
       <c r="J14" s="14">
         <v>6.7</v>
       </c>
@@ -1291,14 +1337,24 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>9.4</v>
+      </c>
       <c r="G15" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I15" s="14">
+        <v>9.6</v>
+      </c>
       <c r="J15" s="14">
         <v>9.5</v>
       </c>
@@ -1336,12 +1392,18 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>11.1</v>
+      </c>
       <c r="G16" s="14">
         <v>10.1</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="I16" s="14">
+        <v>8.9</v>
+      </c>
       <c r="J16" s="14">
         <v>9.4</v>
       </c>
@@ -1379,12 +1441,18 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="G17" s="14">
         <v>10.3</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="I17" s="14">
+        <v>10</v>
+      </c>
       <c r="J17" s="14">
         <v>9.5</v>
       </c>
@@ -1420,14 +1488,24 @@
       <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>11.2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
       <c r="G18" s="14">
         <v>10.3</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="I18" s="14">
+        <v>10.199999999999999</v>
+      </c>
       <c r="J18" s="14">
         <v>9.1</v>
       </c>
@@ -1465,12 +1543,18 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>14.7</v>
+      </c>
       <c r="G19" s="14">
         <v>14.7</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="I19" s="14">
+        <v>16.3</v>
+      </c>
       <c r="J19" s="14">
         <v>14.2</v>
       </c>
@@ -1508,12 +1592,18 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14">
+        <v>7.6</v>
+      </c>
       <c r="G20" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>7.4</v>
+      </c>
       <c r="J20" s="14">
         <v>6.8</v>
       </c>
@@ -1549,14 +1639,24 @@
       <c r="C21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="F21" s="14">
+        <v>6.6</v>
+      </c>
       <c r="G21" s="14">
         <v>6.61</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="I21" s="14">
+        <v>6.8</v>
+      </c>
       <c r="J21" s="14">
         <v>6.3</v>
       </c>
@@ -1594,12 +1694,18 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14">
+        <v>8.1</v>
+      </c>
       <c r="G22" s="14">
         <v>7.8</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="14">
+        <v>7.8</v>
+      </c>
+      <c r="I22" s="14">
+        <v>8.9</v>
+      </c>
       <c r="J22" s="14">
         <v>7.4</v>
       </c>
@@ -1637,12 +1743,18 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14">
+        <v>5.7</v>
+      </c>
       <c r="G23" s="14">
         <v>5.9</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="I23" s="14">
+        <v>5.5</v>
+      </c>
       <c r="J23" s="14">
         <v>5.6</v>
       </c>
@@ -1678,14 +1790,24 @@
       <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="F24" s="14">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="G24" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="14">
+        <v>5</v>
+      </c>
+      <c r="I24" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J24" s="14">
         <v>3.7</v>
       </c>
@@ -1723,12 +1845,18 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14">
+        <v>5.7</v>
+      </c>
       <c r="G25" s="14">
         <v>5.2</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="I25" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J25" s="14">
         <v>4.8</v>
       </c>
@@ -1766,12 +1894,18 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14">
+        <v>4.2</v>
+      </c>
       <c r="G26" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J26" s="14">
         <v>2.8</v>
       </c>
@@ -1807,14 +1941,24 @@
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="14">
+        <v>13</v>
+      </c>
+      <c r="E27" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="F27" s="14">
+        <v>10.3</v>
+      </c>
       <c r="G27" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="H27" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I27" s="14">
+        <v>9.9</v>
+      </c>
       <c r="J27" s="14">
         <v>9.8000000000000007</v>
       </c>
@@ -1852,12 +1996,18 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14">
+        <v>11.3</v>
+      </c>
       <c r="G28" s="14">
         <v>11.4</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="I28" s="14">
+        <v>9.1</v>
+      </c>
       <c r="J28" s="14">
         <v>10.8</v>
       </c>
@@ -1895,12 +2045,18 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="14">
+        <v>9.6</v>
+      </c>
       <c r="G29" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="H29" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="I29" s="14">
+        <v>10.5</v>
+      </c>
       <c r="J29" s="14">
         <v>9.1</v>
       </c>
@@ -1936,14 +2092,24 @@
       <c r="C30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E30" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="F30" s="14">
+        <v>10.199999999999999</v>
+      </c>
       <c r="G30" s="14">
         <v>10</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="I30" s="14">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J30" s="14">
         <v>9.4</v>
       </c>
@@ -1981,12 +2147,18 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14">
+        <v>9.6</v>
+      </c>
       <c r="G31" s="14">
         <v>10.6</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="I31" s="14">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J31" s="14">
         <v>9.6999999999999993</v>
       </c>
@@ -2024,12 +2196,18 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14">
+        <v>10.7</v>
+      </c>
       <c r="G32" s="14">
         <v>9.5</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I32" s="14">
+        <v>7.8</v>
+      </c>
       <c r="J32" s="14">
         <v>9.3000000000000007</v>
       </c>
@@ -2065,9 +2243,15 @@
       <c r="C33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G33" s="14" t="s">
         <v>7</v>
       </c>
@@ -2108,9 +2292,15 @@
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G34" s="14" t="s">
         <v>7</v>
       </c>
@@ -2151,9 +2341,15 @@
       <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="14" t="s">
         <v>7</v>
       </c>
